--- a/Workshop Attendee Info.xlsx
+++ b/Workshop Attendee Info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\GitHub\PyLab-0-Raspberry-Pi-Set-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8D63EC-F5B6-429B-8EB1-9F7C58C89D8A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB4985F-08DE-495E-923D-C648D96840FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{B55D2E4E-B201-4903-B326-4553AA4DE8CB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="23">
   <si>
     <t>Password: raspberry</t>
   </si>
@@ -100,21 +100,6 @@
   </si>
   <si>
     <t>Login name: dev20</t>
-  </si>
-  <si>
-    <t>Login name: dev21</t>
-  </si>
-  <si>
-    <t>Login name: dev22</t>
-  </si>
-  <si>
-    <t>Login name: dev23</t>
-  </si>
-  <si>
-    <t>Login name: dev24</t>
-  </si>
-  <si>
-    <t>Login name: dev25</t>
   </si>
 </sst>
 </file>
@@ -483,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836AC2B7-EB70-4359-ADDF-AB8498624053}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="57.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -497,7 +482,7 @@
     <col min="4" max="16384" width="27.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -508,7 +493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -519,7 +504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -530,7 +515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -541,7 +526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -552,7 +537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -563,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -574,7 +559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -585,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -596,7 +581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -607,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -618,7 +603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -629,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -640,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -651,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -662,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -673,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -684,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -695,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -706,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -717,333 +702,223 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="2" customFormat="1" ht="57.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="1" t="s">
         <v>0</v>
       </c>
     </row>
